--- a/medicine/Mort/Peine_de_mort_au_Botswana/Peine_de_mort_au_Botswana.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Botswana/Peine_de_mort_au_Botswana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peine de mort au Botswana est appliquée régulièrement. En pratique, il s'agit toujours de condamnation à la pendaison pour meurtre. Le Botswana est avec le Japon, les États-Unis, Singapour et Taiwan l'une des seules démocraties libérales à appliquer la peine de mort[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peine de mort au Botswana est appliquée régulièrement. En pratique, il s'agit toujours de condamnation à la pendaison pour meurtre. Le Botswana est avec le Japon, les États-Unis, Singapour et Taiwan l'une des seules démocraties libérales à appliquer la peine de mort.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Procédure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la loi, la peine de mort est le châtiment obligatoire pour meurtre sauf « si l'opinion de la Cour est qu'il existe des circonstances atténuantes ». De ce fait, la condamnation à mort est en fait une possibilité laissée à la discrétion du seul tribunal, qui siège à juge unique.
 Une fois condamné à mort, le détenu ne peut effectuer qu'un seul recours judiciaire devant la cour d'appel, qui met quelques mois à statuer.
@@ -545,10 +559,12 @@
           <t>Exécutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>47 condamnés à mort dont trois femmes ont été exécutés au Botswana depuis l'indépendance du pays en 1966, dont aucun entre 1988 et 1995. Le Botswana a repris les exécutions le 26 août 1995, date à laquelle quatre personnes ont été exécutées. Il y eut ensuite une exécution en 1998, une en 2001 et quatre en 2003. En 2001, le Botswana a été mis sous les projecteurs de la presse internationale en exécutant Mariette Bosch, une Sud-africaine blanche.
-Exécutions depuis 2001</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47 condamnés à mort dont trois femmes ont été exécutés au Botswana depuis l'indépendance du pays en 1966, dont aucun entre 1988 et 1995. Le Botswana a repris les exécutions le 26 août 1995, date à laquelle quatre personnes ont été exécutées. Il y eut ensuite une exécution en 1998, une en 2001 et quatre en 2003. En 2001, le Botswana a été mis sous les projecteurs de la presse internationale en exécutant Mariette Bosch, une Sud-africaine blanche.
+</t>
         </is>
       </c>
     </row>
